--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -405,37 +405,37 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>2022 LECTURE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2022 LAB</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2022 HWK</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>...13</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>PREV LECTURE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>PREV LAB</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>PREV HWK</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>...13</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>...14</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>...15</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>...16</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
           <t>Basic graph theory: definitions, types of networks, types of network data; survey data collection</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>EK Ch. 1-2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>[Lab 0][lab0]</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>[Hwk 1][hwk1]</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>EK Ch. 1-2</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>[Lab 0][lab0]</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>[Hwk 1][hwk1]</t>
         </is>
@@ -513,12 +513,12 @@
           <t>TODO NEWSPAPER</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>[personal networks demo][personal networks demo]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>[Lab 1_1][lab1_1] [Lab 1_2][lab1_2]</t>
         </is>
@@ -533,19 +533,19 @@
           <t>Working with personal network data; our survey results</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>EK Ch. 3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>[personal networks demo][personal networks demo]</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[Lab 1_1][lab1_1] [Lab 1_2][lab1_2]</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>EK Ch. 3</t>
         </is>
       </c>
     </row>
@@ -563,22 +563,22 @@
           <t>Working with entire network data; quantifying network structure</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TODO NEWSPAPER</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>[whole network demo][whole network demo]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>[Hwk 2][hwk2]</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>TODO NEWSPAPER</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>[Hwk 2][hwk2]</t>
         </is>
@@ -598,27 +598,27 @@
           <t>Intro to mathematical network models; the Erdos-Renyi model and its predictions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Watts Ch. 2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>[ER random networks demo][er demo]</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[Lab 2][lab2]</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Watts Ch. 2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>[ER random networks demo][er demo]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>[Lab 2][lab2]</t>
         </is>
@@ -638,7 +638,7 @@
           <t>Strength of weak ties; social capital</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[Triadic closure in an email network][triadic closure demo]</t>
         </is>
@@ -653,32 +653,32 @@
           <t>Networks in context; homophily</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>EK Ch. 41-4.2; Ch. 5.1-5.2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>[Strength of weak ties demo][sowt demo]</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[Lab 3][lab3]</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>[Hwk 3][hwk3]</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>EK Ch. 41-4.2; Ch. 5.1-5.2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>[Strength of weak ties demo][sowt demo]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>[Lab 3][lab3]</t>
         </is>
@@ -698,17 +698,17 @@
           <t>Positive and negative relationships</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Watts Ch. 3</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>[Structural balance demo][structural balance demo]</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Watts Ch. 3</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>[Structural balance demo][structural balance demo]</t>
         </is>
@@ -728,27 +728,27 @@
           <t>Affiliation networks; foci; group membership; one-mode projections of bipartite networks</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Watts Ch. 4</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>[Lab 4][lab4]</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>[Hwk 4][hwk4]</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Watts Ch. 4</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>[Lab 4][lab4]</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>[Hwk 4][hwk4]</t>
         </is>
@@ -783,17 +783,17 @@
           <t>Search in small worlds</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[Lab 5][lab5]</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>[Hwk 5][hwk5]</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>[Hwk 5][hwk5]</t>
         </is>
@@ -808,17 +808,17 @@
           <t>Midterm review</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Watts Ch. 6</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>[Vote on midterm review topics][midtermvotes]</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Watts Ch. 6</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>[BA model][netlogo ba model]</t>
         </is>
@@ -848,7 +848,7 @@
           <t>Scale-free networks</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[BA model][netlogo ba model]</t>
         </is>
@@ -868,12 +868,12 @@
           <t>Empirical studies of network structure</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Quiz 1 - [Studies of network structure](#sec:networkstructure)</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>[SIR demo][SIR demo]</t>
         </is>
@@ -893,17 +893,17 @@
           <t>Diseases and simple contagion in general; SIR model</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[SIR demo][SIR demo]</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>[network SIR demo][network SIR demo]</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>[Lab 5][lab5]</t>
         </is>
@@ -918,17 +918,17 @@
           <t>SIR model on networks</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[threshold infectiousness demo][sir thresh demo]</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[Lab 6][lab6]</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>[threshold infectiousness demo][sir thresh demo]</t>
         </is>
@@ -943,17 +943,17 @@
           <t>Centrality, influence, and network disease models</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Watts Ch. 7</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>[Hwk 6][hwk6]</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Watts Ch. 7</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>[concurrency demo][concurrency]</t>
         </is>
@@ -973,7 +973,7 @@
           <t>Sexual networks, concurrency, and HIV</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Quiz 1 - [concurrency](#sec:concurrency)</t>
         </is>
@@ -983,12 +983,12 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Guest speaker</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Quiz 2 - guest lecture</t>
         </is>
@@ -1023,12 +1023,12 @@
           <t>Threshold models and complex contagion</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>[Hwk 7][hwk7]</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>[Hwk 7][hwk7]</t>
         </is>
@@ -1043,7 +1043,7 @@
           <t>Complex contagion on networks</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Quiz 3 - [the friendship paradox](#sec:friendshipparadox)</t>
         </is>
@@ -1093,14 +1093,14 @@
           <t>Is obesity contagious? Experimental and observational studies of complex contagion</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>EK Ch. 6</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Quiz 4 - [is obesity contagious?](#sec:empiricalcontagion)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>EK Ch. 6</t>
         </is>
       </c>
     </row>
@@ -1127,45 +1127,6 @@
           <t>READING WEEK</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>sampling design</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>s/t about antenatal clinic HIV estimation</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>questionnaire design</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>POSS READINGS</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>gwas methodology</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>experimental design</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>stephane measure errors</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
@@ -1178,11 +1139,6 @@
           <t>https://jupyterhub.github.io/nbgitpuller/link?hub=https://datahub.berkeley.edu&amp;repo=https://github.com/dfeehan/demog180-fa2022&amp;branch=main</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>prediction design</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="E36" t="inlineStr">
@@ -1190,11 +1146,6 @@
           <t>Cooperation; the prisoner's dilemma and public goods games</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>linkage design</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="E37" t="inlineStr">
@@ -1221,16 +1172,6 @@
           <t>Filter bubbles; going viral</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>NOT COVERED :(</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>natural experiments</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
@@ -1243,21 +1184,11 @@
           <t>More complex network models: the block model, the configuration model</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>panel / longitudinal designs</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
           <t>Community detection; models of network formation</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>meta-analysis</t>
         </is>
       </c>
     </row>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/048b7e7bbb9218ae/Desktop/demog180-fa2023/syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DCEE887D35504CD366075C52F37BD2725AC0B37A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{597FC534-565B-4505-AC5B-F9C20D5C2C2E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_DCEE887D35504CD366075C52F37BD2725AC0B37A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42D3F959-49BF-48E1-8F5A-45EBBA71A500}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <t>class</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>write design for a proposed research project (3 short); critique classmates</t>
+  </si>
+  <si>
+    <t>[lab0]</t>
   </si>
 </sst>
 </file>
@@ -446,6 +449,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -738,7 +745,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -815,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -478,6 +478,11 @@
           <t>[Lab 0](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab0%2Flab0-rev.ipynb&amp;branch=main)</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[Hwk 1](https://tinyurl.com/demog180-fa23-hwk01)</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>EK Ch. 1-2</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,12 +380,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t>Topic...5</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lecture...6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -410,12 +410,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2022 LAB</t>
+          <t>2022 LAB...11</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022 HWK</t>
+          <t>2022 HWK...12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -425,17 +425,22 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>PREV LECTURE</t>
+          <t>Topic...14</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>PREV LAB</t>
+          <t>Lecture...15</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>PREV HWK</t>
+          <t>2022 LAB...16</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2022 HWK...17</t>
         </is>
       </c>
     </row>
@@ -458,6 +463,11 @@
           <t>Intro / what social networks are / class info</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Intro / what social networks are / class info</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -465,45 +475,55 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Basic graph theory, working with complete networks</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[Intro to whole network data](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fintro_to_whole_network_data%2Fintro_to_whole_network_data.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[Lab 0](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab0%2Flab0-rev.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[Hwk 1](https://tinyurl.com/demog180-fa23-hwk01)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>EK Ch. 1-2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[Lab 0][lab0]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[Hwk 1][hwk1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>Basic graph theory: definitions, types of networks, types of network data; survey data collection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>[Intro to whole network data](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fintro_to_whole_network_data%2Fintro_to_whole_network_data.ipynb&amp;branch=main)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[Lab 0](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab0%2Flab0-rev.ipynb&amp;branch=main)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[Hwk 1](https://tinyurl.com/demog180-fa23-hwk01)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>EK Ch. 1-2</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>[Lab 0][lab0]</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[Hwk 1][hwk1]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[Lab 0][lab0]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>[Hwk 1][hwk1]</t>
         </is>
@@ -530,12 +550,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[personal networks demo][personal networks demo]</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[Lab 1_1][lab1_1] [Lab 1_2][lab1_2]</t>
+          <t>Personal networks; social connectedness and social isolation in America</t>
         </is>
       </c>
     </row>
@@ -543,22 +558,37 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[Triadic closure / SOWT](#sec:closure-sowt)</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Triadic closure, strength of weak ties</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>EK Ch. 3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[personal networks demo][personal networks demo]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[Lab 1_1][lab1_1] [Lab 1_2][lab1_2]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>Working with personal network data; our survey results</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>EK Ch. 3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[personal networks demo][personal networks demo]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>[Lab 1_1][lab1_1] [Lab 1_2][lab1_2]</t>
         </is>
@@ -570,30 +600,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Complete network data](#sec:complete)</t>
+          <t>[Tie strength / social capital / homophily](#sec:closure-sowt)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Social capital and structural holes</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TODO NEWSPAPER</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[whole network demo][whole network demo]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[Hwk 2][hwk2]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>Working with entire network data; quantifying network structure</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>TODO NEWSPAPER</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[whole network demo][whole network demo]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[Hwk 2][hwk2]</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>[Hwk 2][hwk2]</t>
         </is>
@@ -605,35 +640,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Network models: the ER model](#sec:models)</t>
+          <t>[Homophily and balance theory](#sec:homophily-balance)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Networks in context; homophily; positive and negative networks</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Watts Ch. 2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[ER random networks demo][er demo]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[Lab 2][lab2]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>Intro to mathematical network models; the Erdos-Renyi model and its predictions</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Watts Ch. 2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[ER random networks demo][er demo]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[Lab 2][lab2]</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>[ER random networks demo][er demo]</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>[Lab 2][lab2]</t>
         </is>
@@ -645,17 +680,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Homophily / Tie strength](#sec:homophily)</t>
+          <t>[Network models: the ER model](#sec:models)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Intro to mathematical network models; the Erdos-Renyi model and its predictions</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[Triadic closure in an email network][triadic closure demo]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>Strength of weak ties; social capital</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[Triadic closure in an email network][triadic closure demo]</t>
         </is>
       </c>
     </row>
@@ -663,39 +703,49 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[Small worlds](#sec:smallworlds)</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Small worlds</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>EK Ch. 41-4.2; Ch. 5.1-5.2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[Strength of weak ties demo][sowt demo]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[Lab 3][lab3]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[Hwk 3][hwk3]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>Networks in context; homophily</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>EK Ch. 41-4.2; Ch. 5.1-5.2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[Strength of weak ties demo][sowt demo]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>[Lab 3][lab3]</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>[Hwk 3][hwk3]</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>[Strength of weak ties demo][sowt demo]</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[Lab 3][lab3]</t>
         </is>
       </c>
     </row>
@@ -703,29 +753,24 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[Balance theory](#sec:balance)</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Search in small worlds</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Watts Ch. 3</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[Structural balance demo][structural balance demo]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>Positive and negative relationships</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Watts Ch. 3</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[Structural balance demo][structural balance demo]</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>[Structural balance demo][structural balance demo]</t>
         </is>
       </c>
     </row>
@@ -758,12 +803,17 @@
           <t>[Hwk 4][hwk4]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Affiliation networks; foci; group membership; one-mode projections of bipartite networks</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>[Lab 4][lab4]</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>[Hwk 4][hwk4]</t>
         </is>
@@ -773,19 +823,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[Small worlds](#sec:smallworlds)</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Configuration model AND/OR community detection</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>EK 4.3-4.4</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>Small worlds</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>EK 4.3-4.4</t>
         </is>
       </c>
     </row>
@@ -793,22 +843,37 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[Scale-free networks](#sec:scalefree)</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Scale-free networks</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[Lab 5][lab5]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[Hwk 5][hwk5]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>Search in small worlds</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>[Lab 5][lab5]</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[Hwk 5][hwk5]</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>[Hwk 5][hwk5]</t>
         </is>
@@ -818,24 +883,29 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[Empirical studies of network structure](#sec:networkstructure)</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Empirical studies of network structure</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Watts Ch. 6</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[Vote on midterm review topics][midtermvotes]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>Midterm review</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Watts Ch. 6</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>[Vote on midterm review topics][midtermvotes]</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>[BA model][netlogo ba model]</t>
         </is>
       </c>
     </row>
@@ -845,6 +915,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>Midterm review</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>Midterm</t>
         </is>
       </c>
@@ -860,12 +935,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>Midterm</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[BA model][netlogo ba model]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>Scale-free networks</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[BA model][netlogo ba model]</t>
         </is>
       </c>
     </row>
@@ -875,22 +955,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[Empirical studies of network structure](#sec:networkstructure)</t>
+          <t>[Simple contagion](#sec:simplecontagion)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>Diseases and simple contagion in general; SIR model</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Quiz 1 - [Studies of network structure](#sec:networkstructure)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>Empirical studies of network structure</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Quiz 1 - [Studies of network structure](#sec:networkstructure)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>[SIR demo][SIR demo]</t>
         </is>
       </c>
     </row>
@@ -898,29 +983,19 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[Simple contagion](#sec:simplecontagion)</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>SIR model on networks</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[SIR demo][SIR demo]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>Diseases and simple contagion in general; SIR model</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>[SIR demo][SIR demo]</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>[network SIR demo][network SIR demo]</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[Lab 5][lab5]</t>
         </is>
       </c>
     </row>
@@ -930,22 +1005,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Centrality, influence, and network disease models</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[threshold infectiousness demo][sir thresh demo]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[Lab 6][lab6]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>SIR model on networks</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>[threshold infectiousness demo][sir thresh demo]</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>[Lab 6][lab6]</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>[threshold infectiousness demo][sir thresh demo]</t>
         </is>
       </c>
     </row>
@@ -953,24 +1033,34 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[Concurrency](#sec:concurrency)</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Sexual networks, concurrency, and HIV</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Watts Ch. 7</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[Hwk 6][hwk6]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>Centrality, influence, and network disease models</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Watts Ch. 7</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>[Hwk 6][hwk6]</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>[concurrency demo][concurrency]</t>
         </is>
       </c>
     </row>
@@ -980,15 +1070,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Concurrency](#sec:concurrency)</t>
+          <t>[Social influence](#sec:socialinfluence)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>Social influence, herding, and cascades</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Quiz 1 - [concurrency](#sec:concurrency)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>Sexual networks, concurrency, and HIV</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Quiz 1 - [concurrency](#sec:concurrency)</t>
         </is>
@@ -998,12 +1098,27 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[Complex contagion](#sec:complexcontagion)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Threshold models and complex contagion</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Guest speaker</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
+        <is>
+          <t>Quiz 2 - guest lecture</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Quiz 2 - guest lecture</t>
         </is>
@@ -1013,12 +1128,12 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[Social influence](#sec:socialinfluence)</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
+        <is>
+          <t>Complex contagion on networks</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Social influence, herding, and cascades</t>
         </is>
@@ -1028,22 +1143,22 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>[Complex contagion](#sec:complexcontagion)</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>Complex contagion on networks, cont.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[Hwk 7][hwk7]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>Threshold models and complex contagion</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>[Hwk 7][hwk7]</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>[Hwk 7][hwk7]</t>
         </is>
@@ -1053,12 +1168,17 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Quiz 3 - [the friendship paradox](#sec:friendshipparadox)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>Complex contagion on networks</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Quiz 3 - [the friendship paradox](#sec:friendshipparadox)</t>
         </is>
@@ -1068,7 +1188,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>Complex contagion on networks, cont.</t>
         </is>
@@ -1083,6 +1203,11 @@
           <t>NO CLASS</t>
         </is>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>NO CLASS</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1093,6 +1218,11 @@
           <t>THANKSGIVING (NO CLASS)</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>THANKSGIVING (NO CLASS)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1118,6 +1248,16 @@
           <t>Quiz 4 - [is obesity contagious?](#sec:empiricalcontagion)</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Is obesity contagious? Experimental and observational studies of complex contagion</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Quiz 4 - [is obesity contagious?](#sec:empiricalcontagion)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1128,6 +1268,11 @@
           <t>Wrap up</t>
         </is>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Wrap up</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="E31" t="inlineStr">
@@ -1135,9 +1280,19 @@
           <t>READING WEEK</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>READING WEEK</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="E32" t="inlineStr">
+        <is>
+          <t>READING WEEK</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>READING WEEK</t>
         </is>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -573,6 +573,11 @@
           <t>Triadic closure, strength of weak ties</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[Triadic closure in an email network](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Ftriadic_closure%2Femail-eu-core.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>EK Ch. 3</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -548,6 +548,11 @@
           <t>[Lab 1](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab1%2Flab_complete_network_data.ipynb&amp;branch=main)</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[Hwk 2](https://datahub.berkeley.edu/user/cmisunas/notebooks/demog180-fa2023/hwk/hwk02/hwk_clusteringcoef.ipynb)</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>TODO NEWSPAPER</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[Hwk 2](https://datahub.berkeley.edu/user/cmisunas/notebooks/demog180-fa2023/hwk/hwk02/hwk_clusteringcoef.ipynb)</t>
+          <t>[Hwk 2](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk02%2Fhwk_clusteringcoef.ipynb&amp;branch=main)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -623,6 +623,11 @@
           <t>Social capital and structural holes</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[Strength of weak ties demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fstrength_of_weak_ties%2Fsowt_wiki_talk.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>TODO NEWSPAPER</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -583,6 +583,11 @@
           <t>[Triadic closure in an email network](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Ftriadic_closure%2Femail-eu-core.ipynb&amp;branch=main)</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[Lab 2](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab2%2Flab2_personal_networks.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>EK Ch. 3</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -673,6 +673,11 @@
           <t>Networks in context; homophily; positive and negative networks</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[Structural balance demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fstructural_balance%2Fstructural_balance_in_the_small_slashdot_network.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Watts Ch. 2</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -588,6 +588,11 @@
           <t>[Lab 2](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab2%2Flab2_personal_networks.ipynb&amp;branch=main)</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[Hwk 3](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk03%2Fhwk03_personal_networks.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>EK Ch. 3</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -723,6 +723,11 @@
           <t>Intro to mathematical network models; the Erdos-Renyi model and its predictions</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[ER random networks demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fer_random_networks%2Fer_random_networks.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>[Triadic closure in an email network][triadic closure demo]</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -638,6 +638,11 @@
           <t>[Strength of weak ties demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fstrength_of_weak_ties%2Fsowt_wiki_talk.ipynb&amp;branch=main)</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[Lab 3](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab3%2Flab03_homophily.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>TODO NEWSPAPER</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -643,6 +643,11 @@
           <t>[Lab 3](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab3%2Flab03_homophily.ipynb&amp;branch=main)</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[Hwk 4](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk04%2Fhw04_balance_smallworlds.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>TODO NEWSPAPER</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -873,9 +873,14 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[Scale-free networks](#sec:scalefree)</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Configuration model AND/OR community detection</t>
+          <t>Scale-free networks</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -893,14 +898,14 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[Scale-free networks](#sec:scalefree)</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Scale-free networks</t>
+          <t>Configuration model AND/OR community detection</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Configuration model AND/OR community detection</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -838,6 +838,11 @@
           <t>Affiliation networks; foci; group membership; one-mode projections of bipartite networks</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[Two mode network demo] (https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fecture%2Ftwo_mode_networks%2Ftwo_mode_networks.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Watts Ch. 4</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -840,7 +840,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Two mode network demo] (https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fecture%2Ftwo_mode_networks%2Ftwo_mode_networks.ipynb&amp;branch=main)</t>
+          <t>[Two mode network demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fecture%2Ftwo_mode_networks%2Ftwo_mode_networks.ipynb&amp;branch=main)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -840,7 +840,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Two mode network demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fecture%2Ftwo_mode_networks%2Ftwo_mode_networks.ipynb&amp;branch=main)</t>
+          <t>[Two mode network demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Ftwo_mode_networks%2Ftwo_mode_networks.ipynb&amp;branch=main)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -693,6 +693,11 @@
           <t>[Structural balance demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fstructural_balance%2Fstructural_balance_in_the_small_slashdot_network.ipynb&amp;branch=main)</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[Lab 4](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab%25204%2Flab04_affiliation_networks.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Watts Ch. 2</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -893,6 +893,11 @@
           <t>Scale-free networks</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[netlogo ba model](https://www.netlogoweb.org/launch#https://www.netlogoweb.org/assets/modelslib/Sample%20Models/Networks/Preferential%20Attachment.nlogo)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>EK 4.3-4.4</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -488,11 +488,6 @@
           <t>[Lab 0](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab0%2Flab0-rev.ipynb&amp;branch=main)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[Hwk 1](https://tinyurl.com/demog180-fa23-hwk01)</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>EK Ch. 1-2</t>
@@ -543,14 +538,9 @@
           <t>Personal networks; social connectedness and social isolation in America</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[Lab 1](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab1%2Flab_complete_network_data.ipynb&amp;branch=main)</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[Hwk 2](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk02%2Fhwk_clusteringcoef.ipynb&amp;branch=main)</t>
+          <t>[Hwk 1](https://tinyurl.com/demog180-fa23-hwk01)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -585,12 +575,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[Lab 2](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab2%2Flab2_personal_networks.ipynb&amp;branch=main)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[Hwk 3](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk03%2Fhwk03_personal_networks.ipynb&amp;branch=main)</t>
+          <t>[Lab 1](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab1%2Flab_complete_network_data.ipynb&amp;branch=main)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -638,14 +623,9 @@
           <t>[Strength of weak ties demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fstrength_of_weak_ties%2Fsowt_wiki_talk.ipynb&amp;branch=main)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[Lab 3](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab3%2Flab03_homophily.ipynb&amp;branch=main)</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[Hwk 4](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk04%2Fhw04_balance_smallworlds.ipynb&amp;branch=main)</t>
+          <t>[Hwk 2](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk02%2Fhwk_clusteringcoef.ipynb&amp;branch=main)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -695,7 +675,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[Lab 4](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab%25204%2Flab04_affiliation_networks.ipynb&amp;branch=main)</t>
+          <t>[Lab 2](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab2%2Flab2_personal_networks.ipynb&amp;branch=main)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -743,6 +723,11 @@
           <t>[ER random networks demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fer_random_networks%2Fer_random_networks.ipynb&amp;branch=main)</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[Hwk 3](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk03%2Fhwk03_personal_networks.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>[Triadic closure in an email network][triadic closure demo]</t>
@@ -768,6 +753,11 @@
           <t>Small worlds</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[Lab 3](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab3%2Flab03_homophily.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>EK Ch. 41-4.2; Ch. 5.1-5.2</t>
@@ -813,6 +803,11 @@
           <t>Search in small worlds</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[Hwk 4](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk04%2Fhw04_balance_smallworlds.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>Watts Ch. 3</t>
@@ -848,6 +843,11 @@
           <t>[Two mode network demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Ftwo_mode_networks%2Ftwo_mode_networks.ipynb&amp;branch=main)</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[Lab 4](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab%25204%2Flab04_affiliation_networks.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Watts Ch. 4</t>
@@ -896,6 +896,11 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>[netlogo ba model](https://www.netlogoweb.org/launch#https://www.netlogoweb.org/assets/modelslib/Sample%20Models/Networks/Preferential%20Attachment.nlogo)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[Hwk 5](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk05%2Fhwk05_small_worlds.ipynb&amp;branch=main)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -925,7 +925,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Configuration model AND/OR community detection</t>
+          <t>[Community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fcommunity_detection%2Flecture_examples_community_detection.ipynb&amp;branch=main)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -1038,6 +1038,11 @@
           <t>Diseases and simple contagion in general; SIR model</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[Lab 5](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab5%2Flab5_centrality_sirmodel.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>Quiz 1 - [Studies of network structure](#sec:networkstructure)</t>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -1068,6 +1068,11 @@
           <t>SIR model on networks</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[SIR demo](https://shiny.demog.berkeley.edu/dennis/model-SIR/)</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>[SIR demo][SIR demo]</t>
@@ -1086,6 +1091,11 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>Centrality, influence, and network disease models</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[Hwk 6](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk06%2Fhw06_centrality.ipynb&amp;branch=main)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -1038,6 +1038,11 @@
           <t>Diseases and simple contagion in general; SIR model</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[sir thresh demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flecture%2Fsir_model%2Fsir_threshold_infectiousness.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>[Lab 5](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Flab%2Flab5%2Flab5_centrality_sirmodel.ipynb&amp;branch=main)</t>
@@ -1070,7 +1075,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[SIR demo](https://shiny.demog.berkeley.edu/dennis/model-SIR/)</t>
+          <t>[SIR demo](https://shiny.demog.berkeley.edu/dennis/model-SIR/) [network SIR demo](http://shiny.demog.berkeley.edu/dennis/shiny-SimNetwork/)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -1075,7 +1075,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[SIR demo](https://shiny.demog.berkeley.edu/dennis/model-SIR/) [network SIR demo](http://shiny.demog.berkeley.edu/dennis/shiny-SimNetwork/)</t>
+          <t>[SIR demo](https://shiny.demog.berkeley.edu/dennis/model-SIR/)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1096,6 +1096,11 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>Centrality, influence, and network disease models</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[network SIR demo](http://shiny.demog.berkeley.edu/dennis/shiny-SimNetwork/)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -1198,14 +1198,9 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[Complex contagion](#sec:complexcontagion)</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Threshold models and complex contagion</t>
+          <t>NO CLASS</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1228,9 +1223,14 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[Complex contagion](#sec:complexcontagion)</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Complex contagion on networks</t>
+          <t>Threshold models and complex contagion</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Complex contagion on networks, cont.</t>
+          <t>Complex contagion on networks</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1267,6 +1267,11 @@
     <row r="25">
       <c r="A25">
         <v>24</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Complex contagion on networks, cont.</t>
+        </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -1095,7 +1095,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Centrality, influence, and network disease models</t>
+          <t>Centrality, influence, and network disease models / Empirical studies of simple contagion</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -1293,6 +1293,11 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Is obesity contagious? Experimental and observational studies of complex contagion</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>Complex contagion on networks, cont.</t>
@@ -1340,7 +1345,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Is obesity contagious? Experimental and observational studies of complex contagion</t>
+          <t>Friendship Paradox</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -1293,6 +1293,11 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[Empirical studies of contagion](#sec:empiricalcontagion)</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>Is obesity contagious? Experimental and observational studies of complex contagion</t>
@@ -1337,11 +1342,6 @@
     <row r="29">
       <c r="A29">
         <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>[Empirical studies of contagion](#sec:empiricalcontagion)</t>
-        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>

--- a/syllabus/demog180 - 2023.xlsx
+++ b/syllabus/demog180 - 2023.xlsx
@@ -1303,6 +1303,11 @@
           <t>Is obesity contagious? Experimental and observational studies of complex contagion</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[Hwk 7](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2023&amp;urlpath=tree%2Fdemog180-fa2023%2Fhwk%2Fhwk07%2Fhwk07_friendship_paradox.ipynb&amp;branch=main)</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>Complex contagion on networks, cont.</t>
